--- a/ProductMatch/MDG/ProductMatch_2007.xlsx
+++ b/ProductMatch/MDG/ProductMatch_2007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraol.tesfaye\Desktop\ProductMatch\MDG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A23190-758A-4714-BC21-7D78B721F79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB47E5C1-750E-4938-A824-BA7DD1F04C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52F73054-7E1E-4B6A-9B73-9EF9D5BD4878}"/>
   </bookViews>
@@ -33,18 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
-    <t>Product Code</t>
-  </si>
-  <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>CPC2.1 Code</t>
-  </si>
-  <si>
-    <t>CPC 2.1 Description</t>
-  </si>
-  <si>
     <t>Paddy</t>
   </si>
   <si>
@@ -226,14 +214,34 @@
   </si>
   <si>
     <t>CAF-FOB</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>ProductDescription</t>
+  </si>
+  <si>
+    <t>CPC21Code</t>
+  </si>
+  <si>
+    <t>CPC21Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -261,8 +269,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,189 +588,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3FC662-DCAD-4B67-BCEA-FE100AC396EA}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>29</v>
       </c>
       <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>36</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -769,10 +783,10 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -780,10 +794,10 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -791,10 +805,10 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -802,10 +816,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -813,10 +827,10 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -824,10 +838,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -835,10 +849,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -846,10 +860,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -857,10 +871,10 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -868,10 +882,10 @@
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -879,10 +893,10 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -890,13 +904,13 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -904,10 +918,10 @@
         <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -915,10 +929,10 @@
         <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -926,10 +940,10 @@
         <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -937,10 +951,10 @@
         <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,7 +962,7 @@
         <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
